--- a/po_analysis_by_asin/B08JWCHR5N_po_data.xlsx
+++ b/po_analysis_by_asin/B08JWCHR5N_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,281 +452,625 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44934.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>2538</v>
+        <v>398</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>44941.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>639</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45306</v>
+        <v>44948.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>24</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45313</v>
+        <v>44955.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>24</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45320</v>
+        <v>44962.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>126</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45327</v>
+        <v>44969.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>1128</v>
+        <v>387</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45334</v>
+        <v>44976.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>15</v>
+        <v>528</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45341</v>
+        <v>44983.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>105</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45348</v>
+        <v>44990.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>561</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45355</v>
+        <v>44997.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>844</v>
+        <v>499</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45362</v>
+        <v>45004.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>92</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45369</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>2933</v>
+        <v>739</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45376</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45383</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>96</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45390</v>
+        <v>45053.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>48</v>
+        <v>430</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45397</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>8</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45404</v>
+        <v>45081.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45411</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>34</v>
+        <v>767</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45418</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>86</v>
+        <v>322</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45425</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>32</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45432</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>14</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45439</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>76</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45453</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>1380</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45467</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>494</v>
+        <v>589</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45474</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>542</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45551</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>86</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45558</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>380</v>
+        <v>359</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45565</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>90</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45572</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>634</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45579</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>2690</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45586</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>1570</v>
+        <v>345</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45593</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>124</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45600</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>482</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45607</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>224</v>
+        <v>631</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45621</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B36" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>2933</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B63" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B64" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B65" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B66" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B68" t="n">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B69" t="n">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B70" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B71" t="n">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B72" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B73" t="n">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B74" t="n">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B76" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B77" t="n">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B78" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B79" t="n">
         <v>2</v>
       </c>
     </row>
@@ -741,7 +1085,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -763,81 +1107,169 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44957.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>3351</v>
+        <v>873</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>44985.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>1809</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>3885</v>
+        <v>793</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>190</v>
+        <v>983</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>242</v>
+        <v>812</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>1874</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45474</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>542</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45536</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>466</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45566</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>5108</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45597</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B11" t="n">
+        <v>3181</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45260.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3351</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>3885</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5108</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45626.99999999999</v>
+      </c>
+      <c r="B22" t="n">
         <v>708</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B08JWCHR5N_po_data.xlsx
+++ b/po_analysis_by_asin/B08JWCHR5N_po_data.xlsx
@@ -591,7 +591,7 @@
         <v>45088.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>767</v>
+        <v>460</v>
       </c>
     </row>
     <row r="20">
@@ -1150,7 +1150,7 @@
         <v>45107.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>1645</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="8">

--- a/po_analysis_by_asin/B08JWCHR5N_po_data.xlsx
+++ b/po_analysis_by_asin/B08JWCHR5N_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1102,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1271,6 +1272,1251 @@
       </c>
       <c r="B22" t="n">
         <v>708</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D87"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44934.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>263</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-458.1347355552525</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1089.231699532233</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44941.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>266</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-513.2155700837236</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1007.09629341738</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44948.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>269</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-479.6675998960729</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1017.055891425664</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44955.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>273</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-535.9929721018798</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1026.175923574616</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44962.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>276</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-494.6511195302305</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1014.816544967898</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44969.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>280</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-418.0941281240117</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1046.1512011871</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>283</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-466.3644252214917</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1026.876085202209</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>286</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-417.8293612239113</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1090.745970110345</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>290</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-487.2561475736513</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1064.208670715903</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>293</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-477.5945431288764</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1092.697467079862</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>297</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-520.1575371422132</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1028.833801649707</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>307</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-440.5174053676748</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1017.360873686124</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>314</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-466.1882158543564</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1088.7400129482</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>317</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-445.50908208168</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1059.660483621366</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>320</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-439.7622936075495</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1105.057096863008</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>324</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-438.6570231920147</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1045.505923769773</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>334</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-428.7637908618638</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1062.148077868859</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>337</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-450.7858446605733</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1108.078043433729</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>341</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-356.6545628100388</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1095.358091952454</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>344</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-365.5854241192513</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1064.262235427188</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>348</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-423.6639607151068</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1072.101263252135</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>351</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-400.6912199839315</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1101.356557967008</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>354</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-408.2960869085408</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1091.801673384948</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>358</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-399.321530953591</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1110.866870439488</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>361</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-407.3765604853559</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1152.139663327238</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>365</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-349.7683665415207</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1099.298413071868</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>368</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-422.5835984945348</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1109.770671328268</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>372</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-360.5896253836976</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1112.782626682152</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>375</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-368.7353164801556</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1059.75524999599</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>378</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-360.4808941326888</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1061.100388947686</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>382</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-424.4667924635554</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1122.978096868642</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>385</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-352.2095929839058</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1122.086397330909</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>389</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-357.0437653008295</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1205.14566185536</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>392</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-347.2427755611213</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1147.90285043484</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>395</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-338.5536590971752</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1186.854152661453</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>399</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-360.5734782700902</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1185.278939801267</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>402</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-317.4264757633863</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1115.984100455499</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>406</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-258.5301210350191</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1164.236392781532</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>409</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-292.167192587026</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1146.503006175939</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>412</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-326.8057359245191</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1163.838011762122</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>416</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-326.1870045686604</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1096.831864497545</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>419</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-328.2188471849653</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1138.914470027401</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>423</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-360.1422798396339</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1243.54190551073</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>440</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-252.2715526795573</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1207.65504350827</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>443</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-335.6428949989225</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1205.372684788279</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>446</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-340.4124358872751</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1206.910722842681</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>450</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-371.1665611638832</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1199.029490035093</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>453</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-268.7390894211337</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1212.132989789968</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>457</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-268.2513403476991</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1219.444386820258</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>460</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-291.8211987870018</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1243.298504606847</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>464</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-289.4590316654548</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1184.479893807791</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>467</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-320.0354931378259</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1180.859258292411</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>470</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-246.4648147455729</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1201.49974578186</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>474</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-241.2054085884555</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1228.537924136665</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>477</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-305.4101614522805</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1222.045358627076</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>481</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-264.7684613570395</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1235.066939511968</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>484</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-265.7102652865966</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1252.722539324086</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>487</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-194.3334242286177</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1265.601625680301</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>491</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-234.8746904833094</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1260.170458054858</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>494</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-247.0709134212381</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1212.066725588725</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>498</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-200.1495455543614</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1259.437727379156</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B63" t="n">
+        <v>501</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-240.6497085263271</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1241.322431198642</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B64" t="n">
+        <v>504</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-211.1951690632821</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1260.443518135919</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B65" t="n">
+        <v>508</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-274.682019742934</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1267.199457018741</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B66" t="n">
+        <v>511</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-217.8722988524784</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1240.435564577901</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B67" t="n">
+        <v>518</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-250.2325773667864</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1275.532723780425</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B68" t="n">
+        <v>525</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-230.6832101328393</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1232.005018459037</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B69" t="n">
+        <v>528</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-154.7907394433117</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1298.463515990353</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B70" t="n">
+        <v>566</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-162.9988038749457</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1347.081140237627</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B71" t="n">
+        <v>569</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-132.0666996284691</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1331.145952281339</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B72" t="n">
+        <v>573</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-198.4316594559913</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1338.209154719839</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B73" t="n">
+        <v>576</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-189.9189486112802</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1314.156274108156</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B74" t="n">
+        <v>579</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-110.8955688718591</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1329.120407805685</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B75" t="n">
+        <v>583</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-102.9696743912516</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1314.616298934253</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B76" t="n">
+        <v>586</v>
+      </c>
+      <c r="C76" t="n">
+        <v>-175.5382394316737</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1350.744931395836</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B77" t="n">
+        <v>590</v>
+      </c>
+      <c r="C77" t="n">
+        <v>-121.7065135457445</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1316.751088702355</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B78" t="n">
+        <v>593</v>
+      </c>
+      <c r="C78" t="n">
+        <v>-143.8102479112137</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1347.062876468666</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B79" t="n">
+        <v>600</v>
+      </c>
+      <c r="C79" t="n">
+        <v>-178.8649458088437</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1368.671593240526</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B80" t="n">
+        <v>603</v>
+      </c>
+      <c r="C80" t="n">
+        <v>-175.8754735580555</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1381.828646245852</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B81" t="n">
+        <v>607</v>
+      </c>
+      <c r="C81" t="n">
+        <v>-147.0848884765155</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1320.941032515149</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B82" t="n">
+        <v>610</v>
+      </c>
+      <c r="C82" t="n">
+        <v>-178.4772438085932</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1353.034202577861</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B83" t="n">
+        <v>613</v>
+      </c>
+      <c r="C83" t="n">
+        <v>-96.58187227440364</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1344.793699503865</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B84" t="n">
+        <v>617</v>
+      </c>
+      <c r="C84" t="n">
+        <v>-161.6040030306964</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1378.846041818705</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B85" t="n">
+        <v>620</v>
+      </c>
+      <c r="C85" t="n">
+        <v>-135.0575982558954</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1357.54283741765</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B86" t="n">
+        <v>624</v>
+      </c>
+      <c r="C86" t="n">
+        <v>-129.5807642079587</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1392.408177388481</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>45683.99999999999</v>
+      </c>
+      <c r="B87" t="n">
+        <v>627</v>
+      </c>
+      <c r="C87" t="n">
+        <v>-59.80836841489757</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1352.785378903922</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B08JWCHR5N_po_data.xlsx
+++ b/po_analysis_by_asin/B08JWCHR5N_po_data.xlsx
@@ -1285,7 +1285,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:B87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1304,16 +1304,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1322,12 +1312,6 @@
       <c r="B2" t="n">
         <v>263</v>
       </c>
-      <c r="C2" t="n">
-        <v>-458.1347355552525</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1089.231699532233</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1336,12 +1320,6 @@
       <c r="B3" t="n">
         <v>266</v>
       </c>
-      <c r="C3" t="n">
-        <v>-513.2155700837236</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1007.09629341738</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1350,12 +1328,6 @@
       <c r="B4" t="n">
         <v>269</v>
       </c>
-      <c r="C4" t="n">
-        <v>-479.6675998960729</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1017.055891425664</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1364,12 +1336,6 @@
       <c r="B5" t="n">
         <v>273</v>
       </c>
-      <c r="C5" t="n">
-        <v>-535.9929721018798</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1026.175923574616</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1378,12 +1344,6 @@
       <c r="B6" t="n">
         <v>276</v>
       </c>
-      <c r="C6" t="n">
-        <v>-494.6511195302305</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1014.816544967898</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1392,12 +1352,6 @@
       <c r="B7" t="n">
         <v>280</v>
       </c>
-      <c r="C7" t="n">
-        <v>-418.0941281240117</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1046.1512011871</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1406,12 +1360,6 @@
       <c r="B8" t="n">
         <v>283</v>
       </c>
-      <c r="C8" t="n">
-        <v>-466.3644252214917</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1026.876085202209</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1420,12 +1368,6 @@
       <c r="B9" t="n">
         <v>286</v>
       </c>
-      <c r="C9" t="n">
-        <v>-417.8293612239113</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1090.745970110345</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1434,12 +1376,6 @@
       <c r="B10" t="n">
         <v>290</v>
       </c>
-      <c r="C10" t="n">
-        <v>-487.2561475736513</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1064.208670715903</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1448,12 +1384,6 @@
       <c r="B11" t="n">
         <v>293</v>
       </c>
-      <c r="C11" t="n">
-        <v>-477.5945431288764</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1092.697467079862</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1462,12 +1392,6 @@
       <c r="B12" t="n">
         <v>297</v>
       </c>
-      <c r="C12" t="n">
-        <v>-520.1575371422132</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1028.833801649707</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1476,12 +1400,6 @@
       <c r="B13" t="n">
         <v>307</v>
       </c>
-      <c r="C13" t="n">
-        <v>-440.5174053676748</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1017.360873686124</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1490,12 +1408,6 @@
       <c r="B14" t="n">
         <v>314</v>
       </c>
-      <c r="C14" t="n">
-        <v>-466.1882158543564</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1088.7400129482</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1504,12 +1416,6 @@
       <c r="B15" t="n">
         <v>317</v>
       </c>
-      <c r="C15" t="n">
-        <v>-445.50908208168</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1059.660483621366</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1518,12 +1424,6 @@
       <c r="B16" t="n">
         <v>320</v>
       </c>
-      <c r="C16" t="n">
-        <v>-439.7622936075495</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1105.057096863008</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1532,12 +1432,6 @@
       <c r="B17" t="n">
         <v>324</v>
       </c>
-      <c r="C17" t="n">
-        <v>-438.6570231920147</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1045.505923769773</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1546,12 +1440,6 @@
       <c r="B18" t="n">
         <v>334</v>
       </c>
-      <c r="C18" t="n">
-        <v>-428.7637908618638</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1062.148077868859</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1560,12 +1448,6 @@
       <c r="B19" t="n">
         <v>337</v>
       </c>
-      <c r="C19" t="n">
-        <v>-450.7858446605733</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1108.078043433729</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1574,12 +1456,6 @@
       <c r="B20" t="n">
         <v>341</v>
       </c>
-      <c r="C20" t="n">
-        <v>-356.6545628100388</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1095.358091952454</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1588,12 +1464,6 @@
       <c r="B21" t="n">
         <v>344</v>
       </c>
-      <c r="C21" t="n">
-        <v>-365.5854241192513</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1064.262235427188</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1602,12 +1472,6 @@
       <c r="B22" t="n">
         <v>348</v>
       </c>
-      <c r="C22" t="n">
-        <v>-423.6639607151068</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1072.101263252135</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1616,12 +1480,6 @@
       <c r="B23" t="n">
         <v>351</v>
       </c>
-      <c r="C23" t="n">
-        <v>-400.6912199839315</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1101.356557967008</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1630,12 +1488,6 @@
       <c r="B24" t="n">
         <v>354</v>
       </c>
-      <c r="C24" t="n">
-        <v>-408.2960869085408</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1091.801673384948</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1644,12 +1496,6 @@
       <c r="B25" t="n">
         <v>358</v>
       </c>
-      <c r="C25" t="n">
-        <v>-399.321530953591</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1110.866870439488</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1658,12 +1504,6 @@
       <c r="B26" t="n">
         <v>361</v>
       </c>
-      <c r="C26" t="n">
-        <v>-407.3765604853559</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1152.139663327238</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1672,12 +1512,6 @@
       <c r="B27" t="n">
         <v>365</v>
       </c>
-      <c r="C27" t="n">
-        <v>-349.7683665415207</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1099.298413071868</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1686,12 +1520,6 @@
       <c r="B28" t="n">
         <v>368</v>
       </c>
-      <c r="C28" t="n">
-        <v>-422.5835984945348</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1109.770671328268</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1700,12 +1528,6 @@
       <c r="B29" t="n">
         <v>372</v>
       </c>
-      <c r="C29" t="n">
-        <v>-360.5896253836976</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1112.782626682152</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1714,12 +1536,6 @@
       <c r="B30" t="n">
         <v>375</v>
       </c>
-      <c r="C30" t="n">
-        <v>-368.7353164801556</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1059.75524999599</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1728,12 +1544,6 @@
       <c r="B31" t="n">
         <v>378</v>
       </c>
-      <c r="C31" t="n">
-        <v>-360.4808941326888</v>
-      </c>
-      <c r="D31" t="n">
-        <v>1061.100388947686</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1742,12 +1552,6 @@
       <c r="B32" t="n">
         <v>382</v>
       </c>
-      <c r="C32" t="n">
-        <v>-424.4667924635554</v>
-      </c>
-      <c r="D32" t="n">
-        <v>1122.978096868642</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1756,12 +1560,6 @@
       <c r="B33" t="n">
         <v>385</v>
       </c>
-      <c r="C33" t="n">
-        <v>-352.2095929839058</v>
-      </c>
-      <c r="D33" t="n">
-        <v>1122.086397330909</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1770,12 +1568,6 @@
       <c r="B34" t="n">
         <v>389</v>
       </c>
-      <c r="C34" t="n">
-        <v>-357.0437653008295</v>
-      </c>
-      <c r="D34" t="n">
-        <v>1205.14566185536</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1784,12 +1576,6 @@
       <c r="B35" t="n">
         <v>392</v>
       </c>
-      <c r="C35" t="n">
-        <v>-347.2427755611213</v>
-      </c>
-      <c r="D35" t="n">
-        <v>1147.90285043484</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1798,12 +1584,6 @@
       <c r="B36" t="n">
         <v>395</v>
       </c>
-      <c r="C36" t="n">
-        <v>-338.5536590971752</v>
-      </c>
-      <c r="D36" t="n">
-        <v>1186.854152661453</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1812,12 +1592,6 @@
       <c r="B37" t="n">
         <v>399</v>
       </c>
-      <c r="C37" t="n">
-        <v>-360.5734782700902</v>
-      </c>
-      <c r="D37" t="n">
-        <v>1185.278939801267</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1826,12 +1600,6 @@
       <c r="B38" t="n">
         <v>402</v>
       </c>
-      <c r="C38" t="n">
-        <v>-317.4264757633863</v>
-      </c>
-      <c r="D38" t="n">
-        <v>1115.984100455499</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1840,12 +1608,6 @@
       <c r="B39" t="n">
         <v>406</v>
       </c>
-      <c r="C39" t="n">
-        <v>-258.5301210350191</v>
-      </c>
-      <c r="D39" t="n">
-        <v>1164.236392781532</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1854,12 +1616,6 @@
       <c r="B40" t="n">
         <v>409</v>
       </c>
-      <c r="C40" t="n">
-        <v>-292.167192587026</v>
-      </c>
-      <c r="D40" t="n">
-        <v>1146.503006175939</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1868,12 +1624,6 @@
       <c r="B41" t="n">
         <v>412</v>
       </c>
-      <c r="C41" t="n">
-        <v>-326.8057359245191</v>
-      </c>
-      <c r="D41" t="n">
-        <v>1163.838011762122</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1882,12 +1632,6 @@
       <c r="B42" t="n">
         <v>416</v>
       </c>
-      <c r="C42" t="n">
-        <v>-326.1870045686604</v>
-      </c>
-      <c r="D42" t="n">
-        <v>1096.831864497545</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1896,12 +1640,6 @@
       <c r="B43" t="n">
         <v>419</v>
       </c>
-      <c r="C43" t="n">
-        <v>-328.2188471849653</v>
-      </c>
-      <c r="D43" t="n">
-        <v>1138.914470027401</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1910,12 +1648,6 @@
       <c r="B44" t="n">
         <v>423</v>
       </c>
-      <c r="C44" t="n">
-        <v>-360.1422798396339</v>
-      </c>
-      <c r="D44" t="n">
-        <v>1243.54190551073</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1924,12 +1656,6 @@
       <c r="B45" t="n">
         <v>440</v>
       </c>
-      <c r="C45" t="n">
-        <v>-252.2715526795573</v>
-      </c>
-      <c r="D45" t="n">
-        <v>1207.65504350827</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1938,12 +1664,6 @@
       <c r="B46" t="n">
         <v>443</v>
       </c>
-      <c r="C46" t="n">
-        <v>-335.6428949989225</v>
-      </c>
-      <c r="D46" t="n">
-        <v>1205.372684788279</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1952,12 +1672,6 @@
       <c r="B47" t="n">
         <v>446</v>
       </c>
-      <c r="C47" t="n">
-        <v>-340.4124358872751</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1206.910722842681</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1966,12 +1680,6 @@
       <c r="B48" t="n">
         <v>450</v>
       </c>
-      <c r="C48" t="n">
-        <v>-371.1665611638832</v>
-      </c>
-      <c r="D48" t="n">
-        <v>1199.029490035093</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1980,12 +1688,6 @@
       <c r="B49" t="n">
         <v>453</v>
       </c>
-      <c r="C49" t="n">
-        <v>-268.7390894211337</v>
-      </c>
-      <c r="D49" t="n">
-        <v>1212.132989789968</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1994,12 +1696,6 @@
       <c r="B50" t="n">
         <v>457</v>
       </c>
-      <c r="C50" t="n">
-        <v>-268.2513403476991</v>
-      </c>
-      <c r="D50" t="n">
-        <v>1219.444386820258</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -2008,12 +1704,6 @@
       <c r="B51" t="n">
         <v>460</v>
       </c>
-      <c r="C51" t="n">
-        <v>-291.8211987870018</v>
-      </c>
-      <c r="D51" t="n">
-        <v>1243.298504606847</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -2022,12 +1712,6 @@
       <c r="B52" t="n">
         <v>464</v>
       </c>
-      <c r="C52" t="n">
-        <v>-289.4590316654548</v>
-      </c>
-      <c r="D52" t="n">
-        <v>1184.479893807791</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -2036,12 +1720,6 @@
       <c r="B53" t="n">
         <v>467</v>
       </c>
-      <c r="C53" t="n">
-        <v>-320.0354931378259</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1180.859258292411</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -2050,12 +1728,6 @@
       <c r="B54" t="n">
         <v>470</v>
       </c>
-      <c r="C54" t="n">
-        <v>-246.4648147455729</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1201.49974578186</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -2064,12 +1736,6 @@
       <c r="B55" t="n">
         <v>474</v>
       </c>
-      <c r="C55" t="n">
-        <v>-241.2054085884555</v>
-      </c>
-      <c r="D55" t="n">
-        <v>1228.537924136665</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -2078,12 +1744,6 @@
       <c r="B56" t="n">
         <v>477</v>
       </c>
-      <c r="C56" t="n">
-        <v>-305.4101614522805</v>
-      </c>
-      <c r="D56" t="n">
-        <v>1222.045358627076</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -2092,12 +1752,6 @@
       <c r="B57" t="n">
         <v>481</v>
       </c>
-      <c r="C57" t="n">
-        <v>-264.7684613570395</v>
-      </c>
-      <c r="D57" t="n">
-        <v>1235.066939511968</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -2106,12 +1760,6 @@
       <c r="B58" t="n">
         <v>484</v>
       </c>
-      <c r="C58" t="n">
-        <v>-265.7102652865966</v>
-      </c>
-      <c r="D58" t="n">
-        <v>1252.722539324086</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -2120,12 +1768,6 @@
       <c r="B59" t="n">
         <v>487</v>
       </c>
-      <c r="C59" t="n">
-        <v>-194.3334242286177</v>
-      </c>
-      <c r="D59" t="n">
-        <v>1265.601625680301</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -2134,12 +1776,6 @@
       <c r="B60" t="n">
         <v>491</v>
       </c>
-      <c r="C60" t="n">
-        <v>-234.8746904833094</v>
-      </c>
-      <c r="D60" t="n">
-        <v>1260.170458054858</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -2148,12 +1784,6 @@
       <c r="B61" t="n">
         <v>494</v>
       </c>
-      <c r="C61" t="n">
-        <v>-247.0709134212381</v>
-      </c>
-      <c r="D61" t="n">
-        <v>1212.066725588725</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -2162,12 +1792,6 @@
       <c r="B62" t="n">
         <v>498</v>
       </c>
-      <c r="C62" t="n">
-        <v>-200.1495455543614</v>
-      </c>
-      <c r="D62" t="n">
-        <v>1259.437727379156</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -2176,12 +1800,6 @@
       <c r="B63" t="n">
         <v>501</v>
       </c>
-      <c r="C63" t="n">
-        <v>-240.6497085263271</v>
-      </c>
-      <c r="D63" t="n">
-        <v>1241.322431198642</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -2190,12 +1808,6 @@
       <c r="B64" t="n">
         <v>504</v>
       </c>
-      <c r="C64" t="n">
-        <v>-211.1951690632821</v>
-      </c>
-      <c r="D64" t="n">
-        <v>1260.443518135919</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -2204,12 +1816,6 @@
       <c r="B65" t="n">
         <v>508</v>
       </c>
-      <c r="C65" t="n">
-        <v>-274.682019742934</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1267.199457018741</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -2218,12 +1824,6 @@
       <c r="B66" t="n">
         <v>511</v>
       </c>
-      <c r="C66" t="n">
-        <v>-217.8722988524784</v>
-      </c>
-      <c r="D66" t="n">
-        <v>1240.435564577901</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -2232,12 +1832,6 @@
       <c r="B67" t="n">
         <v>518</v>
       </c>
-      <c r="C67" t="n">
-        <v>-250.2325773667864</v>
-      </c>
-      <c r="D67" t="n">
-        <v>1275.532723780425</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -2246,12 +1840,6 @@
       <c r="B68" t="n">
         <v>525</v>
       </c>
-      <c r="C68" t="n">
-        <v>-230.6832101328393</v>
-      </c>
-      <c r="D68" t="n">
-        <v>1232.005018459037</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -2260,12 +1848,6 @@
       <c r="B69" t="n">
         <v>528</v>
       </c>
-      <c r="C69" t="n">
-        <v>-154.7907394433117</v>
-      </c>
-      <c r="D69" t="n">
-        <v>1298.463515990353</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -2274,12 +1856,6 @@
       <c r="B70" t="n">
         <v>566</v>
       </c>
-      <c r="C70" t="n">
-        <v>-162.9988038749457</v>
-      </c>
-      <c r="D70" t="n">
-        <v>1347.081140237627</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -2288,12 +1864,6 @@
       <c r="B71" t="n">
         <v>569</v>
       </c>
-      <c r="C71" t="n">
-        <v>-132.0666996284691</v>
-      </c>
-      <c r="D71" t="n">
-        <v>1331.145952281339</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -2302,12 +1872,6 @@
       <c r="B72" t="n">
         <v>573</v>
       </c>
-      <c r="C72" t="n">
-        <v>-198.4316594559913</v>
-      </c>
-      <c r="D72" t="n">
-        <v>1338.209154719839</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -2316,12 +1880,6 @@
       <c r="B73" t="n">
         <v>576</v>
       </c>
-      <c r="C73" t="n">
-        <v>-189.9189486112802</v>
-      </c>
-      <c r="D73" t="n">
-        <v>1314.156274108156</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -2330,12 +1888,6 @@
       <c r="B74" t="n">
         <v>579</v>
       </c>
-      <c r="C74" t="n">
-        <v>-110.8955688718591</v>
-      </c>
-      <c r="D74" t="n">
-        <v>1329.120407805685</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -2344,12 +1896,6 @@
       <c r="B75" t="n">
         <v>583</v>
       </c>
-      <c r="C75" t="n">
-        <v>-102.9696743912516</v>
-      </c>
-      <c r="D75" t="n">
-        <v>1314.616298934253</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -2358,12 +1904,6 @@
       <c r="B76" t="n">
         <v>586</v>
       </c>
-      <c r="C76" t="n">
-        <v>-175.5382394316737</v>
-      </c>
-      <c r="D76" t="n">
-        <v>1350.744931395836</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -2372,12 +1912,6 @@
       <c r="B77" t="n">
         <v>590</v>
       </c>
-      <c r="C77" t="n">
-        <v>-121.7065135457445</v>
-      </c>
-      <c r="D77" t="n">
-        <v>1316.751088702355</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -2386,12 +1920,6 @@
       <c r="B78" t="n">
         <v>593</v>
       </c>
-      <c r="C78" t="n">
-        <v>-143.8102479112137</v>
-      </c>
-      <c r="D78" t="n">
-        <v>1347.062876468666</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -2400,12 +1928,6 @@
       <c r="B79" t="n">
         <v>600</v>
       </c>
-      <c r="C79" t="n">
-        <v>-178.8649458088437</v>
-      </c>
-      <c r="D79" t="n">
-        <v>1368.671593240526</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -2414,12 +1936,6 @@
       <c r="B80" t="n">
         <v>603</v>
       </c>
-      <c r="C80" t="n">
-        <v>-175.8754735580555</v>
-      </c>
-      <c r="D80" t="n">
-        <v>1381.828646245852</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -2428,12 +1944,6 @@
       <c r="B81" t="n">
         <v>607</v>
       </c>
-      <c r="C81" t="n">
-        <v>-147.0848884765155</v>
-      </c>
-      <c r="D81" t="n">
-        <v>1320.941032515149</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -2442,12 +1952,6 @@
       <c r="B82" t="n">
         <v>610</v>
       </c>
-      <c r="C82" t="n">
-        <v>-178.4772438085932</v>
-      </c>
-      <c r="D82" t="n">
-        <v>1353.034202577861</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -2456,12 +1960,6 @@
       <c r="B83" t="n">
         <v>613</v>
       </c>
-      <c r="C83" t="n">
-        <v>-96.58187227440364</v>
-      </c>
-      <c r="D83" t="n">
-        <v>1344.793699503865</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -2470,12 +1968,6 @@
       <c r="B84" t="n">
         <v>617</v>
       </c>
-      <c r="C84" t="n">
-        <v>-161.6040030306964</v>
-      </c>
-      <c r="D84" t="n">
-        <v>1378.846041818705</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -2484,12 +1976,6 @@
       <c r="B85" t="n">
         <v>620</v>
       </c>
-      <c r="C85" t="n">
-        <v>-135.0575982558954</v>
-      </c>
-      <c r="D85" t="n">
-        <v>1357.54283741765</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -2498,12 +1984,6 @@
       <c r="B86" t="n">
         <v>624</v>
       </c>
-      <c r="C86" t="n">
-        <v>-129.5807642079587</v>
-      </c>
-      <c r="D86" t="n">
-        <v>1392.408177388481</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -2511,12 +1991,6 @@
       </c>
       <c r="B87" t="n">
         <v>627</v>
-      </c>
-      <c r="C87" t="n">
-        <v>-59.80836841489757</v>
-      </c>
-      <c r="D87" t="n">
-        <v>1352.785378903922</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B08JWCHR5N_po_data.xlsx
+++ b/po_analysis_by_asin/B08JWCHR5N_po_data.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B79"/>
+  <dimension ref="A1:B82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1075,6 +1075,30 @@
         <v>2</v>
       </c>
     </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B80" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B81" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>45683.99999999999</v>
+      </c>
+      <c r="B82" t="n">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1086,7 +1110,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1274,6 +1298,14 @@
         <v>708</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45688.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>170</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1285,7 +1317,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B87"/>
+  <dimension ref="A1:B90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1310,7 +1342,7 @@
         <v>44934.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>263</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="3">
@@ -1318,7 +1350,7 @@
         <v>44941.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>266</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4">
@@ -1326,7 +1358,7 @@
         <v>44948.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1334,7 +1366,7 @@
         <v>44955.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1342,7 +1374,7 @@
         <v>44962.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>276</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7">
@@ -1350,7 +1382,7 @@
         <v>44969.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>280</v>
+        <v>558</v>
       </c>
     </row>
     <row r="8">
@@ -1358,7 +1390,7 @@
         <v>44976.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>283</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9">
@@ -1366,7 +1398,7 @@
         <v>44983.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>286</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10">
@@ -1374,7 +1406,7 @@
         <v>44990.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>290</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1414,7 @@
         <v>44997.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>293</v>
+        <v>494</v>
       </c>
     </row>
     <row r="12">
@@ -1390,7 +1422,7 @@
         <v>45004.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>297</v>
+        <v>950</v>
       </c>
     </row>
     <row r="13">
@@ -1398,7 +1430,7 @@
         <v>45025.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>307</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14">
@@ -1406,7 +1438,7 @@
         <v>45039.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>314</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1414,7 +1446,7 @@
         <v>45046.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>317</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16">
@@ -1422,7 +1454,7 @@
         <v>45053.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>320</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17">
@@ -1430,7 +1462,7 @@
         <v>45060.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>324</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18">
@@ -1438,7 +1470,7 @@
         <v>45081.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>334</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19">
@@ -1446,7 +1478,7 @@
         <v>45088.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>337</v>
+        <v>408</v>
       </c>
     </row>
     <row r="20">
@@ -1454,7 +1486,7 @@
         <v>45095.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>341</v>
+        <v>571</v>
       </c>
     </row>
     <row r="21">
@@ -1462,7 +1494,7 @@
         <v>45102.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>344</v>
+        <v>572</v>
       </c>
     </row>
     <row r="22">
@@ -1470,7 +1502,7 @@
         <v>45109.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>348</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23">
@@ -1478,7 +1510,7 @@
         <v>45116.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>351</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24">
@@ -1486,7 +1518,7 @@
         <v>45123.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>354</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25">
@@ -1494,7 +1526,7 @@
         <v>45130.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>358</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26">
@@ -1502,7 +1534,7 @@
         <v>45137.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>361</v>
+        <v>337</v>
       </c>
     </row>
     <row r="27">
@@ -1510,7 +1542,7 @@
         <v>45144.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>365</v>
+        <v>439</v>
       </c>
     </row>
     <row r="28">
@@ -1518,7 +1550,7 @@
         <v>45151.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>368</v>
+        <v>461</v>
       </c>
     </row>
     <row r="29">
@@ -1526,7 +1558,7 @@
         <v>45158.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>372</v>
+        <v>455</v>
       </c>
     </row>
     <row r="30">
@@ -1534,7 +1566,7 @@
         <v>45165.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>375</v>
+        <v>462</v>
       </c>
     </row>
     <row r="31">
@@ -1542,7 +1574,7 @@
         <v>45172.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>378</v>
+        <v>423</v>
       </c>
     </row>
     <row r="32">
@@ -1550,7 +1582,7 @@
         <v>45179.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>382</v>
+        <v>257</v>
       </c>
     </row>
     <row r="33">
@@ -1558,7 +1590,7 @@
         <v>45186.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>385</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34">
@@ -1566,7 +1598,7 @@
         <v>45193.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>389</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1574,7 +1606,7 @@
         <v>45200.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>392</v>
+        <v>234</v>
       </c>
     </row>
     <row r="36">
@@ -1582,7 +1614,7 @@
         <v>45207.99999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>395</v>
+        <v>780</v>
       </c>
     </row>
     <row r="37">
@@ -1590,7 +1622,7 @@
         <v>45214.99999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>399</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="38">
@@ -1598,7 +1630,7 @@
         <v>45221.99999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>402</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="39">
@@ -1606,7 +1638,7 @@
         <v>45228.99999999999</v>
       </c>
       <c r="B39" t="n">
-        <v>406</v>
+        <v>852</v>
       </c>
     </row>
     <row r="40">
@@ -1614,7 +1646,7 @@
         <v>45235.99999999999</v>
       </c>
       <c r="B40" t="n">
-        <v>409</v>
+        <v>417</v>
       </c>
     </row>
     <row r="41">
@@ -1622,7 +1654,7 @@
         <v>45242.99999999999</v>
       </c>
       <c r="B41" t="n">
-        <v>412</v>
+        <v>203</v>
       </c>
     </row>
     <row r="42">
@@ -1630,7 +1662,7 @@
         <v>45249.99999999999</v>
       </c>
       <c r="B42" t="n">
-        <v>416</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43">
@@ -1638,7 +1670,7 @@
         <v>45256.99999999999</v>
       </c>
       <c r="B43" t="n">
-        <v>419</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44">
@@ -1646,7 +1678,7 @@
         <v>45263.99999999999</v>
       </c>
       <c r="B44" t="n">
-        <v>423</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45">
@@ -1654,7 +1686,7 @@
         <v>45298.99999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>440</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="46">
@@ -1662,7 +1694,7 @@
         <v>45305.99999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>443</v>
+        <v>559</v>
       </c>
     </row>
     <row r="47">
@@ -1670,7 +1702,7 @@
         <v>45312.99999999999</v>
       </c>
       <c r="B47" t="n">
-        <v>446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1678,7 +1710,7 @@
         <v>45319.99999999999</v>
       </c>
       <c r="B48" t="n">
-        <v>450</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1686,7 +1718,7 @@
         <v>45326.99999999999</v>
       </c>
       <c r="B49" t="n">
-        <v>453</v>
+        <v>374</v>
       </c>
     </row>
     <row r="50">
@@ -1694,7 +1726,7 @@
         <v>45333.99999999999</v>
       </c>
       <c r="B50" t="n">
-        <v>457</v>
+        <v>656</v>
       </c>
     </row>
     <row r="51">
@@ -1702,7 +1734,7 @@
         <v>45340.99999999999</v>
       </c>
       <c r="B51" t="n">
-        <v>460</v>
+        <v>521</v>
       </c>
     </row>
     <row r="52">
@@ -1710,7 +1742,7 @@
         <v>45347.99999999999</v>
       </c>
       <c r="B52" t="n">
-        <v>464</v>
+        <v>198</v>
       </c>
     </row>
     <row r="53">
@@ -1718,7 +1750,7 @@
         <v>45354.99999999999</v>
       </c>
       <c r="B53" t="n">
-        <v>467</v>
+        <v>139</v>
       </c>
     </row>
     <row r="54">
@@ -1726,7 +1758,7 @@
         <v>45361.99999999999</v>
       </c>
       <c r="B54" t="n">
-        <v>470</v>
+        <v>506</v>
       </c>
     </row>
     <row r="55">
@@ -1734,7 +1766,7 @@
         <v>45368.99999999999</v>
       </c>
       <c r="B55" t="n">
-        <v>474</v>
+        <v>992</v>
       </c>
     </row>
     <row r="56">
@@ -1742,7 +1774,7 @@
         <v>45375.99999999999</v>
       </c>
       <c r="B56" t="n">
-        <v>477</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="57">
@@ -1750,7 +1782,7 @@
         <v>45382.99999999999</v>
       </c>
       <c r="B57" t="n">
-        <v>481</v>
+        <v>855</v>
       </c>
     </row>
     <row r="58">
@@ -1758,7 +1790,7 @@
         <v>45389.99999999999</v>
       </c>
       <c r="B58" t="n">
-        <v>484</v>
+        <v>372</v>
       </c>
     </row>
     <row r="59">
@@ -1766,7 +1798,7 @@
         <v>45396.99999999999</v>
       </c>
       <c r="B59" t="n">
-        <v>487</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60">
@@ -1774,7 +1806,7 @@
         <v>45403.99999999999</v>
       </c>
       <c r="B60" t="n">
-        <v>491</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61">
@@ -1782,7 +1814,7 @@
         <v>45410.99999999999</v>
       </c>
       <c r="B61" t="n">
-        <v>494</v>
+        <v>220</v>
       </c>
     </row>
     <row r="62">
@@ -1790,7 +1822,7 @@
         <v>45417.99999999999</v>
       </c>
       <c r="B62" t="n">
-        <v>498</v>
+        <v>272</v>
       </c>
     </row>
     <row r="63">
@@ -1798,7 +1830,7 @@
         <v>45424.99999999999</v>
       </c>
       <c r="B63" t="n">
-        <v>501</v>
+        <v>180</v>
       </c>
     </row>
     <row r="64">
@@ -1806,7 +1838,7 @@
         <v>45431.99999999999</v>
       </c>
       <c r="B64" t="n">
-        <v>504</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65">
@@ -1814,7 +1846,7 @@
         <v>45438.99999999999</v>
       </c>
       <c r="B65" t="n">
-        <v>508</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66">
@@ -1822,7 +1854,7 @@
         <v>45445.99999999999</v>
       </c>
       <c r="B66" t="n">
-        <v>511</v>
+        <v>233</v>
       </c>
     </row>
     <row r="67">
@@ -1830,7 +1862,7 @@
         <v>45459.99999999999</v>
       </c>
       <c r="B67" t="n">
-        <v>518</v>
+        <v>656</v>
       </c>
     </row>
     <row r="68">
@@ -1838,7 +1870,7 @@
         <v>45473.99999999999</v>
       </c>
       <c r="B68" t="n">
-        <v>525</v>
+        <v>563</v>
       </c>
     </row>
     <row r="69">
@@ -1846,7 +1878,7 @@
         <v>45480.99999999999</v>
       </c>
       <c r="B69" t="n">
-        <v>528</v>
+        <v>373</v>
       </c>
     </row>
     <row r="70">
@@ -1854,7 +1886,7 @@
         <v>45557.99999999999</v>
       </c>
       <c r="B70" t="n">
-        <v>566</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71">
@@ -1862,7 +1894,7 @@
         <v>45564.99999999999</v>
       </c>
       <c r="B71" t="n">
-        <v>569</v>
+        <v>260</v>
       </c>
     </row>
     <row r="72">
@@ -1870,7 +1902,7 @@
         <v>45571.99999999999</v>
       </c>
       <c r="B72" t="n">
-        <v>573</v>
+        <v>782</v>
       </c>
     </row>
     <row r="73">
@@ -1878,7 +1910,7 @@
         <v>45578.99999999999</v>
       </c>
       <c r="B73" t="n">
-        <v>576</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="74">
@@ -1886,7 +1918,7 @@
         <v>45585.99999999999</v>
       </c>
       <c r="B74" t="n">
-        <v>579</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="75">
@@ -1894,7 +1926,7 @@
         <v>45592.99999999999</v>
       </c>
       <c r="B75" t="n">
-        <v>583</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="76">
@@ -1902,7 +1934,7 @@
         <v>45599.99999999999</v>
       </c>
       <c r="B76" t="n">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="77">
@@ -1910,7 +1942,7 @@
         <v>45606.99999999999</v>
       </c>
       <c r="B77" t="n">
-        <v>590</v>
+        <v>327</v>
       </c>
     </row>
     <row r="78">
@@ -1918,7 +1950,7 @@
         <v>45613.99999999999</v>
       </c>
       <c r="B78" t="n">
-        <v>593</v>
+        <v>282</v>
       </c>
     </row>
     <row r="79">
@@ -1926,71 +1958,95 @@
         <v>45627.99999999999</v>
       </c>
       <c r="B79" t="n">
-        <v>600</v>
+        <v>172</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45634.99999999999</v>
+        <v>45669.99999999999</v>
       </c>
       <c r="B80" t="n">
-        <v>603</v>
+        <v>805</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45641.99999999999</v>
+        <v>45676.99999999999</v>
       </c>
       <c r="B81" t="n">
-        <v>607</v>
+        <v>142</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45648.99999999999</v>
+        <v>45683.99999999999</v>
       </c>
       <c r="B82" t="n">
-        <v>610</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45655.99999999999</v>
+        <v>45690.99999999999</v>
       </c>
       <c r="B83" t="n">
-        <v>613</v>
+        <v>400</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45662.99999999999</v>
+        <v>45697.99999999999</v>
       </c>
       <c r="B84" t="n">
-        <v>617</v>
+        <v>738</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45669.99999999999</v>
+        <v>45704.99999999999</v>
       </c>
       <c r="B85" t="n">
-        <v>620</v>
+        <v>676</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45676.99999999999</v>
+        <v>45711.99999999999</v>
       </c>
       <c r="B86" t="n">
-        <v>624</v>
+        <v>352</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45683.99999999999</v>
+        <v>45718.99999999999</v>
       </c>
       <c r="B87" t="n">
-        <v>627</v>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>45725.99999999999</v>
+      </c>
+      <c r="B88" t="n">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>45732.99999999999</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>45739.99999999999</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1264</v>
       </c>
     </row>
   </sheetData>
